--- a/Contexto demográfico régimen/data/BD_Pensionados.xlsx
+++ b/Contexto demográfico régimen/data/BD_Pensionados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\CA-0412\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f07da985e540e617/Documents/Universidad/7 - Séptimo semestre/Pensiones I/Proyecto_pensiones_I/Contexto demográfico régimen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{57C07219-C396-4202-9620-6661796086D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E0D30F6-EAE8-49F8-8F3F-7CE88691634C}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{57C07219-C396-4202-9620-6661796086D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D422385-61DB-4520-8B06-FE17288CC573}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BDEE2E6-7388-443E-8F2E-2E07170ACBA5}"/>
   </bookViews>
@@ -1206,7 +1206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1261,7 +1261,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1269,6 +1269,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1607,11 +1608,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4122361-168E-4B56-8C51-28F58885BA2A}">
   <dimension ref="A1:O366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1622,7 +1623,7 @@
     <col min="10" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1670,11 +1671,14 @@
       <c r="H2" s="1">
         <v>42902</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="7">
+        <f>YEAR(D2)</f>
+        <v>1963</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1696,10 +1700,13 @@
       <c r="H3" s="1">
         <v>43778</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="7">
+        <f>YEAR(D3)</f>
+        <v>1968</v>
+      </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1721,10 +1728,13 @@
       <c r="H4" s="1">
         <v>43717</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:I67" si="0">YEAR(D4)</f>
+        <v>1962</v>
+      </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1746,9 +1756,12 @@
       <c r="H5" s="1">
         <v>44680</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1770,9 +1783,12 @@
       <c r="H6" s="1">
         <v>45165</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1794,9 +1810,12 @@
       <c r="H7" s="1">
         <v>44881</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1818,9 +1837,12 @@
       <c r="H8" s="1">
         <v>41050</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="I8" s="7">
+        <f t="shared" si="0"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1842,9 +1864,12 @@
       <c r="H9" s="1">
         <v>42063</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1866,9 +1891,12 @@
       <c r="H10" s="1">
         <v>43280</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="I10" s="7">
+        <f t="shared" si="0"/>
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1890,9 +1918,12 @@
       <c r="H11" s="1">
         <v>43814</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1914,9 +1945,12 @@
       <c r="H12" s="1">
         <v>44423</v>
       </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1938,10 +1972,13 @@
       <c r="H13" s="1">
         <v>42788</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>1969</v>
+      </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1963,9 +2000,12 @@
       <c r="H14" s="1">
         <v>44152</v>
       </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="I14" s="7">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1987,10 +2027,13 @@
       <c r="H15" s="1">
         <v>44055</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="7">
+        <f t="shared" si="0"/>
+        <v>1976</v>
+      </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2012,9 +2055,12 @@
       <c r="H16" s="1">
         <v>42964</v>
       </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" s="7">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2036,9 +2082,12 @@
       <c r="H17" s="1">
         <v>44732</v>
       </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="7">
+        <f t="shared" si="0"/>
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2060,9 +2109,12 @@
       <c r="H18" s="1">
         <v>41711</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="7">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2084,9 +2136,12 @@
       <c r="H19" s="1">
         <v>40106</v>
       </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" s="7">
+        <f t="shared" si="0"/>
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2108,9 +2163,12 @@
       <c r="H20" s="1">
         <v>41933</v>
       </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" s="7">
+        <f t="shared" si="0"/>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2132,9 +2190,12 @@
       <c r="H21" s="1">
         <v>41127</v>
       </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" s="7">
+        <f t="shared" si="0"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2156,9 +2217,12 @@
       <c r="H22" s="1">
         <v>44455</v>
       </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" s="7">
+        <f t="shared" si="0"/>
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -2180,9 +2244,12 @@
       <c r="H23" s="1">
         <v>41444</v>
       </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" s="7">
+        <f t="shared" si="0"/>
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2204,9 +2271,12 @@
       <c r="H24" s="1">
         <v>44310</v>
       </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24" s="7">
+        <f t="shared" si="0"/>
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2228,9 +2298,12 @@
       <c r="H25" s="1">
         <v>44283</v>
       </c>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25" s="7">
+        <f t="shared" si="0"/>
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -2252,9 +2325,12 @@
       <c r="H26" s="1">
         <v>41846</v>
       </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" s="7">
+        <f t="shared" si="0"/>
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2276,9 +2352,12 @@
       <c r="H27" s="1">
         <v>43630</v>
       </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" s="7">
+        <f t="shared" si="0"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -2300,9 +2379,12 @@
       <c r="H28" s="1">
         <v>42718</v>
       </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="7">
+        <f t="shared" si="0"/>
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -2324,9 +2406,12 @@
       <c r="H29" s="1">
         <v>43895</v>
       </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="7">
+        <f t="shared" si="0"/>
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2348,9 +2433,12 @@
       <c r="H30" s="1">
         <v>43184</v>
       </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="7">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2372,9 +2460,12 @@
       <c r="H31" s="1">
         <v>43972</v>
       </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" s="7">
+        <f t="shared" si="0"/>
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2396,9 +2487,12 @@
       <c r="H32" s="1">
         <v>41946</v>
       </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" s="7">
+        <f t="shared" si="0"/>
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2420,9 +2514,12 @@
       <c r="H33" s="1">
         <v>41124</v>
       </c>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" s="7">
+        <f t="shared" si="0"/>
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -2444,9 +2541,12 @@
       <c r="H34" s="1">
         <v>40867</v>
       </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="I34" s="7">
+        <f t="shared" si="0"/>
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -2468,9 +2568,12 @@
       <c r="H35" s="1">
         <v>38514</v>
       </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="I35" s="7">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2492,9 +2595,12 @@
       <c r="H36" s="1">
         <v>39534</v>
       </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="I36" s="7">
+        <f t="shared" si="0"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2516,9 +2622,12 @@
       <c r="H37" s="1">
         <v>42593</v>
       </c>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="I37" s="7">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2540,9 +2649,12 @@
       <c r="H38" s="1">
         <v>42967</v>
       </c>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="I38" s="7">
+        <f t="shared" si="0"/>
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2564,9 +2676,12 @@
       <c r="H39" s="1">
         <v>39107</v>
       </c>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="I39" s="7">
+        <f t="shared" si="0"/>
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2588,9 +2703,12 @@
       <c r="H40" s="1">
         <v>44193</v>
       </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="I40" s="7">
+        <f t="shared" si="0"/>
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2612,9 +2730,12 @@
       <c r="H41" s="1">
         <v>42943</v>
       </c>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="I41" s="7">
+        <f t="shared" si="0"/>
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2636,9 +2757,12 @@
       <c r="H42" s="1">
         <v>43010</v>
       </c>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="I42" s="7">
+        <f t="shared" si="0"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -2660,9 +2784,12 @@
       <c r="H43" s="1">
         <v>38714</v>
       </c>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="I43" s="7">
+        <f t="shared" si="0"/>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -2684,9 +2811,12 @@
       <c r="H44" s="1">
         <v>44355</v>
       </c>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" s="7">
+        <f t="shared" si="0"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -2708,9 +2838,12 @@
       <c r="H45" s="1">
         <v>44957</v>
       </c>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="I45" s="7">
+        <f t="shared" si="0"/>
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -2732,9 +2865,12 @@
       <c r="H46" s="1">
         <v>39039</v>
       </c>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" s="7">
+        <f t="shared" si="0"/>
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -2756,9 +2892,12 @@
       <c r="H47" s="1">
         <v>44294</v>
       </c>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="I47" s="7">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -2780,9 +2919,12 @@
       <c r="H48" s="1">
         <v>44242</v>
       </c>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="I48" s="7">
+        <f t="shared" si="0"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -2804,9 +2946,12 @@
       <c r="H49" s="1">
         <v>44744</v>
       </c>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="I49" s="7">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -2828,9 +2973,12 @@
       <c r="H50" s="1">
         <v>42697</v>
       </c>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="I50" s="7">
+        <f t="shared" si="0"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -2852,9 +3000,12 @@
       <c r="H51" s="1">
         <v>42433</v>
       </c>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="I51" s="7">
+        <f t="shared" si="0"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -2876,9 +3027,12 @@
       <c r="H52" s="1">
         <v>44844</v>
       </c>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="I52" s="7">
+        <f t="shared" si="0"/>
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -2900,9 +3054,12 @@
       <c r="H53" s="1">
         <v>41550</v>
       </c>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="I53" s="7">
+        <f t="shared" si="0"/>
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -2924,9 +3081,12 @@
       <c r="H54" s="1">
         <v>43926</v>
       </c>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="I54" s="7">
+        <f t="shared" si="0"/>
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -2948,9 +3108,12 @@
       <c r="H55" s="1">
         <v>43813</v>
       </c>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="I55" s="7">
+        <f t="shared" si="0"/>
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -2972,9 +3135,12 @@
       <c r="H56" s="1">
         <v>40918</v>
       </c>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="I56" s="7">
+        <f t="shared" si="0"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -2996,9 +3162,12 @@
       <c r="H57" s="1">
         <v>40735</v>
       </c>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="I57" s="7">
+        <f t="shared" si="0"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -3020,9 +3189,12 @@
       <c r="H58" s="1">
         <v>40349</v>
       </c>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="I58" s="7">
+        <f t="shared" si="0"/>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -3044,9 +3216,12 @@
       <c r="H59" s="1">
         <v>44674</v>
       </c>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="I59" s="7">
+        <f t="shared" si="0"/>
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -3068,9 +3243,12 @@
       <c r="H60" s="1">
         <v>38714</v>
       </c>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="I60" s="7">
+        <f t="shared" si="0"/>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -3092,9 +3270,12 @@
       <c r="H61" s="1">
         <v>37750</v>
       </c>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="I61" s="7">
+        <f t="shared" si="0"/>
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -3116,9 +3297,12 @@
       <c r="H62" s="1">
         <v>39172</v>
       </c>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="I62" s="7">
+        <f t="shared" si="0"/>
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -3140,9 +3324,12 @@
       <c r="H63" s="1">
         <v>36771</v>
       </c>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="I63" s="7">
+        <f t="shared" si="0"/>
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -3164,9 +3351,12 @@
       <c r="H64" s="1">
         <v>42249</v>
       </c>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="I64" s="7">
+        <f t="shared" si="0"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -3191,9 +3381,12 @@
       <c r="H65" s="1">
         <v>41388</v>
       </c>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="I65" s="7">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -3218,9 +3411,12 @@
       <c r="H66" s="1">
         <v>44305</v>
       </c>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="I66" s="7">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -3245,9 +3441,12 @@
       <c r="H67" s="1">
         <v>44738</v>
       </c>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="I67" s="7">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -3272,9 +3471,12 @@
       <c r="H68" s="1">
         <v>44486</v>
       </c>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="I68" s="7">
+        <f t="shared" ref="I68:I131" si="1">YEAR(D68)</f>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -3299,9 +3501,12 @@
       <c r="H69" s="1">
         <v>42646</v>
       </c>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="I69" s="7">
+        <f t="shared" si="1"/>
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -3326,9 +3531,12 @@
       <c r="H70" s="1">
         <v>43832</v>
       </c>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="I70" s="7">
+        <f t="shared" si="1"/>
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -3353,9 +3561,12 @@
       <c r="H71" s="1">
         <v>43876</v>
       </c>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="I71" s="7">
+        <f t="shared" si="1"/>
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -3380,9 +3591,12 @@
       <c r="H72" s="1">
         <v>44426</v>
       </c>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="I72" s="7">
+        <f t="shared" si="1"/>
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -3407,9 +3621,12 @@
       <c r="H73" s="1">
         <v>42561</v>
       </c>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="I73" s="7">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -3434,9 +3651,12 @@
       <c r="H74" s="1">
         <v>42063</v>
       </c>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="I74" s="7">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -3461,9 +3681,12 @@
       <c r="H75" s="1">
         <v>44353</v>
       </c>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="I75" s="7">
+        <f t="shared" si="1"/>
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -3488,9 +3711,12 @@
       <c r="H76" s="1">
         <v>43734</v>
       </c>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="I76" s="7">
+        <f t="shared" si="1"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -3515,9 +3741,12 @@
       <c r="H77" s="1">
         <v>43828</v>
       </c>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="I77" s="7">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -3542,9 +3771,12 @@
       <c r="H78" s="1">
         <v>44008</v>
       </c>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="I78" s="7">
+        <f t="shared" si="1"/>
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -3569,9 +3801,12 @@
       <c r="H79" s="1">
         <v>44196</v>
       </c>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="I79" s="7">
+        <f t="shared" si="1"/>
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -3596,9 +3831,12 @@
       <c r="H80" s="1">
         <v>41108</v>
       </c>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="I80" s="7">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -3623,9 +3861,12 @@
       <c r="H81" s="1">
         <v>42916</v>
       </c>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="I81" s="7">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -3650,9 +3891,12 @@
       <c r="H82" s="1">
         <v>41199</v>
       </c>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="I82" s="7">
+        <f t="shared" si="1"/>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -3677,9 +3921,12 @@
       <c r="H83" s="1">
         <v>44332</v>
       </c>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="I83" s="7">
+        <f t="shared" si="1"/>
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -3704,9 +3951,12 @@
       <c r="H84" s="1">
         <v>41925</v>
       </c>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="I84" s="7">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -3731,9 +3981,12 @@
       <c r="H85" s="1">
         <v>42352</v>
       </c>
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="I85" s="7">
+        <f t="shared" si="1"/>
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>105</v>
       </c>
@@ -3758,9 +4011,12 @@
       <c r="H86" s="1">
         <v>42020</v>
       </c>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="I86" s="7">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -3785,9 +4041,12 @@
       <c r="H87" s="1">
         <v>43145</v>
       </c>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="I87" s="7">
+        <f t="shared" si="1"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -3812,9 +4071,12 @@
       <c r="H88" s="1">
         <v>43196</v>
       </c>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="I88" s="7">
+        <f t="shared" si="1"/>
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -3839,9 +4101,12 @@
       <c r="H89" s="1">
         <v>42074</v>
       </c>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="I89" s="7">
+        <f t="shared" si="1"/>
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -3866,9 +4131,12 @@
       <c r="H90" s="1">
         <v>41907</v>
       </c>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="I90" s="7">
+        <f t="shared" si="1"/>
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -3893,9 +4161,12 @@
       <c r="H91" s="1">
         <v>44571</v>
       </c>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="I91" s="7">
+        <f t="shared" si="1"/>
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -3920,9 +4191,12 @@
       <c r="H92" s="1">
         <v>41999</v>
       </c>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="I92" s="7">
+        <f t="shared" si="1"/>
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>112</v>
       </c>
@@ -3947,9 +4221,12 @@
       <c r="H93" s="1">
         <v>43254</v>
       </c>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="I93" s="7">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>113</v>
       </c>
@@ -3974,9 +4251,12 @@
       <c r="H94" s="1">
         <v>41980</v>
       </c>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="I94" s="7">
+        <f t="shared" si="1"/>
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -4001,9 +4281,12 @@
       <c r="H95" s="1">
         <v>42345</v>
       </c>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="I95" s="7">
+        <f t="shared" si="1"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -4028,9 +4311,12 @@
       <c r="H96" s="1">
         <v>41001</v>
       </c>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="I96" s="7">
+        <f t="shared" si="1"/>
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -4055,9 +4341,12 @@
       <c r="H97" s="1">
         <v>44973</v>
       </c>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="I97" s="7">
+        <f t="shared" si="1"/>
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -4082,9 +4371,12 @@
       <c r="H98" s="1">
         <v>37442</v>
       </c>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="I98" s="7">
+        <f t="shared" si="1"/>
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -4109,9 +4401,12 @@
       <c r="H99" s="1">
         <v>42605</v>
       </c>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="I99" s="7">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -4136,9 +4431,12 @@
       <c r="H100" s="1">
         <v>44505</v>
       </c>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="I100" s="7">
+        <f t="shared" si="1"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -4163,9 +4461,12 @@
       <c r="H101" s="1">
         <v>42120</v>
       </c>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="I101" s="7">
+        <f t="shared" si="1"/>
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -4190,9 +4491,12 @@
       <c r="H102" s="1">
         <v>36661</v>
       </c>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="I102" s="7">
+        <f t="shared" si="1"/>
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -4217,9 +4521,12 @@
       <c r="H103" s="1">
         <v>43901</v>
       </c>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="I103" s="7">
+        <f t="shared" si="1"/>
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>123</v>
       </c>
@@ -4244,9 +4551,12 @@
       <c r="H104" s="1">
         <v>40892</v>
       </c>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="I104" s="7">
+        <f t="shared" si="1"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -4271,9 +4581,12 @@
       <c r="H105" s="1">
         <v>43453</v>
       </c>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="I105" s="7">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -4298,9 +4611,12 @@
       <c r="H106" s="1">
         <v>43321</v>
       </c>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="I106" s="7">
+        <f t="shared" si="1"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -4325,9 +4641,12 @@
       <c r="H107" s="1">
         <v>39564</v>
       </c>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="I107" s="7">
+        <f t="shared" si="1"/>
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -4352,9 +4671,12 @@
       <c r="H108" s="1">
         <v>43501</v>
       </c>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="I108" s="7">
+        <f t="shared" si="1"/>
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -4379,9 +4701,12 @@
       <c r="H109" s="1">
         <v>43105</v>
       </c>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="I109" s="7">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -4406,9 +4731,12 @@
       <c r="H110" s="1">
         <v>41510</v>
       </c>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="I110" s="7">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -4433,9 +4761,12 @@
       <c r="H111" s="1">
         <v>43616</v>
       </c>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="I111" s="7">
+        <f t="shared" si="1"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>131</v>
       </c>
@@ -4460,9 +4791,12 @@
       <c r="H112" s="1">
         <v>44354</v>
       </c>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="I112" s="7">
+        <f t="shared" si="1"/>
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>132</v>
       </c>
@@ -4487,9 +4821,12 @@
       <c r="H113" s="1">
         <v>44117</v>
       </c>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="I113" s="7">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -4514,9 +4851,12 @@
       <c r="H114" s="1">
         <v>44830</v>
       </c>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="I114" s="7">
+        <f t="shared" si="1"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -4541,9 +4881,12 @@
       <c r="H115" s="1">
         <v>41960</v>
       </c>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="I115" s="7">
+        <f t="shared" si="1"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -4568,9 +4911,12 @@
       <c r="H116" s="1">
         <v>44481</v>
       </c>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="I116" s="7">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -4595,9 +4941,12 @@
       <c r="H117" s="1">
         <v>44427</v>
       </c>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="I117" s="7">
+        <f t="shared" si="1"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -4622,9 +4971,12 @@
       <c r="H118" s="1">
         <v>42438</v>
       </c>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="I118" s="7">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -4649,9 +5001,12 @@
       <c r="H119" s="1">
         <v>44502</v>
       </c>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="I119" s="7">
+        <f t="shared" si="1"/>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -4676,9 +5031,12 @@
       <c r="H120" s="1">
         <v>43368</v>
       </c>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="I120" s="7">
+        <f t="shared" si="1"/>
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -4703,9 +5061,12 @@
       <c r="H121" s="1">
         <v>44074</v>
       </c>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="I121" s="7">
+        <f t="shared" si="1"/>
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -4730,9 +5091,12 @@
       <c r="H122" s="1">
         <v>42815</v>
       </c>
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="I122" s="7">
+        <f t="shared" si="1"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -4757,9 +5121,12 @@
       <c r="H123" s="1">
         <v>42794</v>
       </c>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="I123" s="7">
+        <f t="shared" si="1"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -4784,9 +5151,12 @@
       <c r="H124" s="1">
         <v>42232</v>
       </c>
-      <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="I124" s="7">
+        <f t="shared" si="1"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -4811,9 +5181,12 @@
       <c r="H125" s="1">
         <v>44466</v>
       </c>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="I125" s="7">
+        <f t="shared" si="1"/>
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -4838,9 +5211,12 @@
       <c r="H126" s="1">
         <v>41131</v>
       </c>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="I126" s="7">
+        <f t="shared" si="1"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -4865,9 +5241,12 @@
       <c r="H127" s="1">
         <v>43644</v>
       </c>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="I127" s="7">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -4892,9 +5271,12 @@
       <c r="H128" s="1">
         <v>40015</v>
       </c>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="I128" s="7">
+        <f t="shared" si="1"/>
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -4919,9 +5301,12 @@
       <c r="H129" s="1">
         <v>44762</v>
       </c>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="I129" s="7">
+        <f t="shared" si="1"/>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -4946,9 +5331,12 @@
       <c r="H130" s="1">
         <v>44837</v>
       </c>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="I130" s="7">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -4973,9 +5361,12 @@
       <c r="H131" s="1">
         <v>44431</v>
       </c>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="I131" s="7">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -5000,9 +5391,12 @@
       <c r="H132" s="1">
         <v>43978</v>
       </c>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="I132" s="7">
+        <f t="shared" ref="I132:I195" si="2">YEAR(D132)</f>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -5027,9 +5421,12 @@
       <c r="H133" s="1">
         <v>43631</v>
       </c>
-      <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="I133" s="7">
+        <f t="shared" si="2"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -5054,9 +5451,12 @@
       <c r="H134" s="1">
         <v>43482</v>
       </c>
-      <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="I134" s="7">
+        <f t="shared" si="2"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -5081,9 +5481,12 @@
       <c r="H135" s="1">
         <v>44111</v>
       </c>
-      <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="I135" s="7">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -5108,9 +5511,12 @@
       <c r="H136" s="1">
         <v>42507</v>
       </c>
-      <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="I136" s="7">
+        <f t="shared" si="2"/>
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>156</v>
       </c>
@@ -5135,9 +5541,12 @@
       <c r="H137" s="1">
         <v>44500</v>
       </c>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="I137" s="7">
+        <f t="shared" si="2"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>157</v>
       </c>
@@ -5162,9 +5571,12 @@
       <c r="H138" s="1">
         <v>43809</v>
       </c>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="I138" s="7">
+        <f t="shared" si="2"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>158</v>
       </c>
@@ -5189,9 +5601,12 @@
       <c r="H139" s="1">
         <v>41536</v>
       </c>
-      <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="I139" s="7">
+        <f t="shared" si="2"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>159</v>
       </c>
@@ -5216,9 +5631,12 @@
       <c r="H140" s="1">
         <v>44490</v>
       </c>
-      <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="I140" s="7">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>160</v>
       </c>
@@ -5243,9 +5661,12 @@
       <c r="H141" s="1">
         <v>40760</v>
       </c>
-      <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="I141" s="7">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>161</v>
       </c>
@@ -5270,9 +5691,12 @@
       <c r="H142" s="1">
         <v>43515</v>
       </c>
-      <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="I142" s="7">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>162</v>
       </c>
@@ -5297,9 +5721,12 @@
       <c r="H143" s="1">
         <v>43851</v>
       </c>
-      <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="I143" s="7">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>163</v>
       </c>
@@ -5324,9 +5751,12 @@
       <c r="H144" s="1">
         <v>44579</v>
       </c>
-      <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="I144" s="7">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>164</v>
       </c>
@@ -5351,9 +5781,12 @@
       <c r="H145" s="1">
         <v>39136</v>
       </c>
-      <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="I145" s="7">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>165</v>
       </c>
@@ -5378,9 +5811,12 @@
       <c r="H146" s="1">
         <v>39924</v>
       </c>
-      <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="I146" s="7">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>166</v>
       </c>
@@ -5405,9 +5841,12 @@
       <c r="H147" s="1">
         <v>39409</v>
       </c>
-      <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="I147" s="7">
+        <f t="shared" si="2"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -5432,9 +5871,12 @@
       <c r="H148" s="1">
         <v>41379</v>
       </c>
-      <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="I148" s="7">
+        <f t="shared" si="2"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>168</v>
       </c>
@@ -5459,9 +5901,12 @@
       <c r="H149" s="1">
         <v>41504</v>
       </c>
-      <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="I149" s="7">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>169</v>
       </c>
@@ -5486,9 +5931,12 @@
       <c r="H150" s="1">
         <v>43163</v>
       </c>
-      <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="I150" s="7">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>170</v>
       </c>
@@ -5513,9 +5961,12 @@
       <c r="H151" s="1">
         <v>43205</v>
       </c>
-      <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="I151" s="7">
+        <f t="shared" si="2"/>
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>171</v>
       </c>
@@ -5540,9 +5991,12 @@
       <c r="H152" s="1">
         <v>42685</v>
       </c>
-      <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="I152" s="7">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>172</v>
       </c>
@@ -5567,9 +6021,12 @@
       <c r="H153" s="1">
         <v>42978</v>
       </c>
-      <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="I153" s="7">
+        <f t="shared" si="2"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>173</v>
       </c>
@@ -5594,9 +6051,12 @@
       <c r="H154" s="1">
         <v>43464</v>
       </c>
-      <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="I154" s="7">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>174</v>
       </c>
@@ -5621,9 +6081,12 @@
       <c r="H155" s="1">
         <v>44540</v>
       </c>
-      <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="I155" s="7">
+        <f t="shared" si="2"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>175</v>
       </c>
@@ -5648,9 +6111,12 @@
       <c r="H156" s="1">
         <v>41533</v>
       </c>
-      <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="I156" s="7">
+        <f t="shared" si="2"/>
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>176</v>
       </c>
@@ -5675,9 +6141,12 @@
       <c r="H157" s="1">
         <v>43257</v>
       </c>
-      <c r="I157" s="1"/>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="I157" s="7">
+        <f t="shared" si="2"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>177</v>
       </c>
@@ -5702,9 +6171,12 @@
       <c r="H158" s="1">
         <v>44281</v>
       </c>
-      <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="I158" s="7">
+        <f t="shared" si="2"/>
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>178</v>
       </c>
@@ -5729,9 +6201,12 @@
       <c r="H159" s="1">
         <v>44682</v>
       </c>
-      <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="I159" s="7">
+        <f t="shared" si="2"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>179</v>
       </c>
@@ -5756,9 +6231,12 @@
       <c r="H160" s="1">
         <v>40968</v>
       </c>
-      <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="I160" s="7">
+        <f t="shared" si="2"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>180</v>
       </c>
@@ -5780,9 +6258,12 @@
       <c r="H161" s="1">
         <v>42911</v>
       </c>
-      <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="I161" s="7">
+        <f t="shared" si="2"/>
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -5804,9 +6285,12 @@
       <c r="H162" s="1">
         <v>44978</v>
       </c>
-      <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="I162" s="7">
+        <f t="shared" si="2"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -5828,9 +6312,12 @@
       <c r="H163" s="1">
         <v>44083</v>
       </c>
-      <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="I163" s="7">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -5852,9 +6339,12 @@
       <c r="H164" s="1">
         <v>43868</v>
       </c>
-      <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="I164" s="7">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -5876,9 +6366,12 @@
       <c r="H165" s="1">
         <v>44780</v>
       </c>
-      <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="I165" s="7">
+        <f t="shared" si="2"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -5900,9 +6393,12 @@
       <c r="H166" s="1">
         <v>43623</v>
       </c>
-      <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="I166" s="7">
+        <f t="shared" si="2"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -5924,9 +6420,12 @@
       <c r="H167" s="1">
         <v>44599</v>
       </c>
-      <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="I167" s="7">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -5948,9 +6447,12 @@
       <c r="H168" s="1">
         <v>43689</v>
       </c>
-      <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="I168" s="7">
+        <f t="shared" si="2"/>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -5972,9 +6474,12 @@
       <c r="H169" s="1">
         <v>44942</v>
       </c>
-      <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="I169" s="7">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -5996,9 +6501,12 @@
       <c r="H170" s="1">
         <v>43979</v>
       </c>
-      <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="I170" s="7">
+        <f t="shared" si="2"/>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -6020,9 +6528,12 @@
       <c r="H171" s="1">
         <v>42812</v>
       </c>
-      <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="I171" s="7">
+        <f t="shared" si="2"/>
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -6044,9 +6555,12 @@
       <c r="H172" s="1">
         <v>44507</v>
       </c>
-      <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="I172" s="7">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -6068,9 +6582,12 @@
       <c r="H173" s="1">
         <v>45047</v>
       </c>
-      <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="I173" s="7">
+        <f t="shared" si="2"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -6092,9 +6609,12 @@
       <c r="H174" s="1">
         <v>45192</v>
       </c>
-      <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="I174" s="7">
+        <f t="shared" si="2"/>
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -6116,9 +6636,12 @@
       <c r="H175" s="1">
         <v>44363</v>
       </c>
-      <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="I175" s="7">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -6140,9 +6663,12 @@
       <c r="H176" s="1">
         <v>43315</v>
       </c>
-      <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="I176" s="7">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -6164,9 +6690,12 @@
       <c r="H177" s="1">
         <v>43866</v>
       </c>
-      <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="I177" s="7">
+        <f t="shared" si="2"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -6188,9 +6717,12 @@
       <c r="H178" s="1">
         <v>43192</v>
       </c>
-      <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="I178" s="7">
+        <f t="shared" si="2"/>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -6212,9 +6744,12 @@
       <c r="H179" s="1">
         <v>43893</v>
       </c>
-      <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="I179" s="7">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -6236,9 +6771,12 @@
       <c r="H180" s="1">
         <v>44508</v>
       </c>
-      <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="I180" s="7">
+        <f t="shared" si="2"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>201</v>
       </c>
@@ -6260,9 +6798,12 @@
       <c r="H181" s="1">
         <v>43019</v>
       </c>
-      <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="I181" s="7">
+        <f t="shared" si="2"/>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -6284,9 +6825,12 @@
       <c r="H182" s="1">
         <v>44247</v>
       </c>
-      <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="I182" s="7">
+        <f t="shared" si="2"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>203</v>
       </c>
@@ -6308,9 +6852,12 @@
       <c r="H183" s="1">
         <v>44708</v>
       </c>
-      <c r="I183" s="1"/>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="I183" s="7">
+        <f t="shared" si="2"/>
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>204</v>
       </c>
@@ -6332,9 +6879,12 @@
       <c r="H184" s="1">
         <v>44926</v>
       </c>
-      <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="I184" s="7">
+        <f t="shared" si="2"/>
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>205</v>
       </c>
@@ -6356,9 +6906,12 @@
       <c r="H185" s="1">
         <v>44358</v>
       </c>
-      <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="I185" s="7">
+        <f t="shared" si="2"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>206</v>
       </c>
@@ -6380,9 +6933,12 @@
       <c r="H186" s="1">
         <v>43334</v>
       </c>
-      <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="I186" s="7">
+        <f t="shared" si="2"/>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>207</v>
       </c>
@@ -6404,9 +6960,12 @@
       <c r="H187" s="1">
         <v>44213</v>
       </c>
-      <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="I187" s="7">
+        <f t="shared" si="2"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>208</v>
       </c>
@@ -6428,9 +6987,12 @@
       <c r="H188" s="1">
         <v>44352</v>
       </c>
-      <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="I188" s="7">
+        <f t="shared" si="2"/>
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>209</v>
       </c>
@@ -6452,9 +7014,12 @@
       <c r="H189" s="1">
         <v>45125</v>
       </c>
-      <c r="I189" s="1"/>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="I189" s="7">
+        <f t="shared" si="2"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>210</v>
       </c>
@@ -6476,9 +7041,12 @@
       <c r="H190" s="1">
         <v>43234</v>
       </c>
-      <c r="I190" s="1"/>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="I190" s="7">
+        <f t="shared" si="2"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>211</v>
       </c>
@@ -6500,9 +7068,12 @@
       <c r="H191" s="1">
         <v>43779</v>
       </c>
-      <c r="I191" s="1"/>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="I191" s="7">
+        <f t="shared" si="2"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>212</v>
       </c>
@@ -6524,9 +7095,12 @@
       <c r="H192" s="1">
         <v>45115</v>
       </c>
-      <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="I192" s="7">
+        <f t="shared" si="2"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>213</v>
       </c>
@@ -6548,9 +7122,12 @@
       <c r="H193" s="1">
         <v>44575</v>
       </c>
-      <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="I193" s="7">
+        <f t="shared" si="2"/>
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>214</v>
       </c>
@@ -6572,9 +7149,12 @@
       <c r="H194" s="1">
         <v>43452</v>
       </c>
-      <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="I194" s="7">
+        <f t="shared" si="2"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -6596,9 +7176,12 @@
       <c r="H195" s="1">
         <v>44339</v>
       </c>
-      <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="I195" s="7">
+        <f t="shared" si="2"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -6620,9 +7203,12 @@
       <c r="H196" s="1">
         <v>42548</v>
       </c>
-      <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="I196" s="7">
+        <f t="shared" ref="I196:I259" si="3">YEAR(D196)</f>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -6644,9 +7230,12 @@
       <c r="H197" s="1">
         <v>44450</v>
       </c>
-      <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="I197" s="7">
+        <f t="shared" si="3"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -6668,9 +7257,12 @@
       <c r="H198" s="1">
         <v>44679</v>
       </c>
-      <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="I198" s="7">
+        <f t="shared" si="3"/>
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>219</v>
       </c>
@@ -6692,9 +7284,12 @@
       <c r="H199" s="1">
         <v>43822</v>
       </c>
-      <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="I199" s="7">
+        <f t="shared" si="3"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>220</v>
       </c>
@@ -6716,9 +7311,12 @@
       <c r="H200" s="1">
         <v>43968</v>
       </c>
-      <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="I200" s="7">
+        <f t="shared" si="3"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>221</v>
       </c>
@@ -6740,9 +7338,12 @@
       <c r="H201" s="1">
         <v>44470</v>
       </c>
-      <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="I201" s="7">
+        <f t="shared" si="3"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>222</v>
       </c>
@@ -6764,9 +7365,12 @@
       <c r="H202" s="1">
         <v>45023</v>
       </c>
-      <c r="I202" s="1"/>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="I202" s="7">
+        <f t="shared" si="3"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>223</v>
       </c>
@@ -6788,9 +7392,12 @@
       <c r="H203" s="1">
         <v>43706</v>
       </c>
-      <c r="I203" s="1"/>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="I203" s="7">
+        <f t="shared" si="3"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>224</v>
       </c>
@@ -6812,9 +7419,12 @@
       <c r="H204" s="1">
         <v>42872</v>
       </c>
-      <c r="I204" s="1"/>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="I204" s="7">
+        <f t="shared" si="3"/>
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>225</v>
       </c>
@@ -6836,9 +7446,12 @@
       <c r="H205" s="1">
         <v>44132</v>
       </c>
-      <c r="I205" s="1"/>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="I205" s="7">
+        <f t="shared" si="3"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>226</v>
       </c>
@@ -6860,9 +7473,12 @@
       <c r="H206" s="1">
         <v>42548</v>
       </c>
-      <c r="I206" s="1"/>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="I206" s="7">
+        <f t="shared" si="3"/>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>227</v>
       </c>
@@ -6884,9 +7500,12 @@
       <c r="H207" s="1">
         <v>43270</v>
       </c>
-      <c r="I207" s="1"/>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="I207" s="7">
+        <f t="shared" si="3"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>228</v>
       </c>
@@ -6908,9 +7527,12 @@
       <c r="H208" s="1">
         <v>45087</v>
       </c>
-      <c r="I208" s="1"/>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="I208" s="7">
+        <f t="shared" si="3"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>229</v>
       </c>
@@ -6932,9 +7554,12 @@
       <c r="H209" s="1">
         <v>44199</v>
       </c>
-      <c r="I209" s="1"/>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="I209" s="7">
+        <f t="shared" si="3"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>230</v>
       </c>
@@ -6956,9 +7581,12 @@
       <c r="H210" s="1">
         <v>44805</v>
       </c>
-      <c r="I210" s="1"/>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="I210" s="7">
+        <f t="shared" si="3"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>231</v>
       </c>
@@ -6980,9 +7608,12 @@
       <c r="H211" s="1">
         <v>45148</v>
       </c>
-      <c r="I211" s="1"/>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="I211" s="7">
+        <f t="shared" si="3"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>232</v>
       </c>
@@ -7004,9 +7635,12 @@
       <c r="H212" s="1">
         <v>45023</v>
       </c>
-      <c r="I212" s="1"/>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="I212" s="7">
+        <f t="shared" si="3"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>233</v>
       </c>
@@ -7028,9 +7662,12 @@
       <c r="H213" s="1">
         <v>42819</v>
       </c>
-      <c r="I213" s="1"/>
-    </row>
-    <row r="214" spans="1:9">
+      <c r="I213" s="7">
+        <f t="shared" si="3"/>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>234</v>
       </c>
@@ -7052,9 +7689,12 @@
       <c r="H214" s="1">
         <v>44308</v>
       </c>
-      <c r="I214" s="1"/>
-    </row>
-    <row r="215" spans="1:9">
+      <c r="I214" s="7">
+        <f t="shared" si="3"/>
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>235</v>
       </c>
@@ -7076,9 +7716,12 @@
       <c r="H215" s="1">
         <v>42336</v>
       </c>
-      <c r="I215" s="1"/>
-    </row>
-    <row r="216" spans="1:9">
+      <c r="I215" s="7">
+        <f t="shared" si="3"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>236</v>
       </c>
@@ -7100,9 +7743,12 @@
       <c r="H216" s="1">
         <v>44677</v>
       </c>
-      <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="I216" s="7">
+        <f t="shared" si="3"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>237</v>
       </c>
@@ -7124,9 +7770,12 @@
       <c r="H217" s="1">
         <v>41427</v>
       </c>
-      <c r="I217" s="1"/>
-    </row>
-    <row r="218" spans="1:9">
+      <c r="I217" s="7">
+        <f t="shared" si="3"/>
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>238</v>
       </c>
@@ -7148,9 +7797,12 @@
       <c r="H218" s="1">
         <v>41237</v>
       </c>
-      <c r="I218" s="1"/>
-    </row>
-    <row r="219" spans="1:9">
+      <c r="I218" s="7">
+        <f t="shared" si="3"/>
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>239</v>
       </c>
@@ -7172,9 +7824,12 @@
       <c r="H219" s="1">
         <v>43978</v>
       </c>
-      <c r="I219" s="1"/>
-    </row>
-    <row r="220" spans="1:9">
+      <c r="I219" s="7">
+        <f t="shared" si="3"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>240</v>
       </c>
@@ -7196,9 +7851,12 @@
       <c r="H220" s="1">
         <v>44508</v>
       </c>
-      <c r="I220" s="1"/>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="I220" s="7">
+        <f t="shared" si="3"/>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>241</v>
       </c>
@@ -7220,9 +7878,12 @@
       <c r="H221" s="1">
         <v>44241</v>
       </c>
-      <c r="I221" s="1"/>
-    </row>
-    <row r="222" spans="1:9">
+      <c r="I221" s="7">
+        <f t="shared" si="3"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>242</v>
       </c>
@@ -7244,9 +7905,12 @@
       <c r="H222" s="1">
         <v>44785</v>
       </c>
-      <c r="I222" s="1"/>
-    </row>
-    <row r="223" spans="1:9">
+      <c r="I222" s="7">
+        <f t="shared" si="3"/>
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>243</v>
       </c>
@@ -7268,9 +7932,12 @@
       <c r="H223" s="1">
         <v>44502</v>
       </c>
-      <c r="I223" s="1"/>
-    </row>
-    <row r="224" spans="1:9">
+      <c r="I223" s="7">
+        <f t="shared" si="3"/>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>244</v>
       </c>
@@ -7292,9 +7959,12 @@
       <c r="H224" s="1">
         <v>44312</v>
       </c>
-      <c r="I224" s="1"/>
-    </row>
-    <row r="225" spans="1:9">
+      <c r="I224" s="7">
+        <f t="shared" si="3"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>245</v>
       </c>
@@ -7316,9 +7986,12 @@
       <c r="H225" s="1">
         <v>44530</v>
       </c>
-      <c r="I225" s="1"/>
-    </row>
-    <row r="226" spans="1:9">
+      <c r="I225" s="7">
+        <f t="shared" si="3"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>246</v>
       </c>
@@ -7340,9 +8013,12 @@
       <c r="H226" s="1">
         <v>44589</v>
       </c>
-      <c r="I226" s="1"/>
-    </row>
-    <row r="227" spans="1:9">
+      <c r="I226" s="7">
+        <f t="shared" si="3"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>247</v>
       </c>
@@ -7364,9 +8040,12 @@
       <c r="H227" s="1">
         <v>44090</v>
       </c>
-      <c r="I227" s="1"/>
-    </row>
-    <row r="228" spans="1:9">
+      <c r="I227" s="7">
+        <f t="shared" si="3"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>248</v>
       </c>
@@ -7388,9 +8067,12 @@
       <c r="H228" s="1">
         <v>44490</v>
       </c>
-      <c r="I228" s="1"/>
-    </row>
-    <row r="229" spans="1:9">
+      <c r="I228" s="7">
+        <f t="shared" si="3"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>249</v>
       </c>
@@ -7412,9 +8094,12 @@
       <c r="H229" s="1">
         <v>44340</v>
       </c>
-      <c r="I229" s="1"/>
-    </row>
-    <row r="230" spans="1:9">
+      <c r="I229" s="7">
+        <f t="shared" si="3"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>250</v>
       </c>
@@ -7436,9 +8121,12 @@
       <c r="H230" s="1">
         <v>44496</v>
       </c>
-      <c r="I230" s="1"/>
-    </row>
-    <row r="231" spans="1:9">
+      <c r="I230" s="7">
+        <f t="shared" si="3"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>251</v>
       </c>
@@ -7460,9 +8148,12 @@
       <c r="H231" s="1">
         <v>44689</v>
       </c>
-      <c r="I231" s="1"/>
-    </row>
-    <row r="232" spans="1:9">
+      <c r="I231" s="7">
+        <f t="shared" si="3"/>
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>252</v>
       </c>
@@ -7484,9 +8175,12 @@
       <c r="H232" s="1">
         <v>42886</v>
       </c>
-      <c r="I232" s="1"/>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="I232" s="7">
+        <f t="shared" si="3"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>253</v>
       </c>
@@ -7508,9 +8202,12 @@
       <c r="H233" s="1">
         <v>42865</v>
       </c>
-      <c r="I233" s="1"/>
-    </row>
-    <row r="234" spans="1:9">
+      <c r="I233" s="7">
+        <f t="shared" si="3"/>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>254</v>
       </c>
@@ -7532,9 +8229,12 @@
       <c r="H234" s="1">
         <v>44915</v>
       </c>
-      <c r="I234" s="1"/>
-    </row>
-    <row r="235" spans="1:9">
+      <c r="I234" s="7">
+        <f t="shared" si="3"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>255</v>
       </c>
@@ -7556,9 +8256,12 @@
       <c r="H235" s="1">
         <v>42995</v>
       </c>
-      <c r="I235" s="1"/>
-    </row>
-    <row r="236" spans="1:9">
+      <c r="I235" s="7">
+        <f t="shared" si="3"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>256</v>
       </c>
@@ -7580,9 +8283,12 @@
       <c r="H236" s="1">
         <v>44422</v>
       </c>
-      <c r="I236" s="1"/>
-    </row>
-    <row r="237" spans="1:9">
+      <c r="I236" s="7">
+        <f t="shared" si="3"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>257</v>
       </c>
@@ -7604,9 +8310,12 @@
       <c r="H237" s="1">
         <v>44453</v>
       </c>
-      <c r="I237" s="1"/>
-    </row>
-    <row r="238" spans="1:9">
+      <c r="I237" s="7">
+        <f t="shared" si="3"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>258</v>
       </c>
@@ -7628,9 +8337,12 @@
       <c r="H238" s="1">
         <v>45072</v>
       </c>
-      <c r="I238" s="1"/>
-    </row>
-    <row r="239" spans="1:9">
+      <c r="I238" s="7">
+        <f t="shared" si="3"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>259</v>
       </c>
@@ -7652,9 +8364,12 @@
       <c r="H239" s="1">
         <v>43506</v>
       </c>
-      <c r="I239" s="1"/>
-    </row>
-    <row r="240" spans="1:9">
+      <c r="I239" s="7">
+        <f t="shared" si="3"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>260</v>
       </c>
@@ -7676,9 +8391,12 @@
       <c r="H240" s="1">
         <v>44229</v>
       </c>
-      <c r="I240" s="1"/>
-    </row>
-    <row r="241" spans="1:9">
+      <c r="I240" s="7">
+        <f t="shared" si="3"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>261</v>
       </c>
@@ -7700,9 +8418,12 @@
       <c r="H241" s="1">
         <v>44925</v>
       </c>
-      <c r="I241" s="1"/>
-    </row>
-    <row r="242" spans="1:9">
+      <c r="I241" s="7">
+        <f t="shared" si="3"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>262</v>
       </c>
@@ -7724,9 +8445,12 @@
       <c r="H242" s="1">
         <v>42889</v>
       </c>
-      <c r="I242" s="1"/>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="I242" s="7">
+        <f t="shared" si="3"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>263</v>
       </c>
@@ -7748,9 +8472,12 @@
       <c r="H243" s="1">
         <v>44322</v>
       </c>
-      <c r="I243" s="1"/>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="I243" s="7">
+        <f t="shared" si="3"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>264</v>
       </c>
@@ -7772,9 +8499,12 @@
       <c r="H244" s="1">
         <v>41067</v>
       </c>
-      <c r="I244" s="1"/>
-    </row>
-    <row r="245" spans="1:9">
+      <c r="I244" s="7">
+        <f t="shared" si="3"/>
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>265</v>
       </c>
@@ -7796,9 +8526,12 @@
       <c r="H245" s="1">
         <v>44426</v>
       </c>
-      <c r="I245" s="1"/>
-    </row>
-    <row r="246" spans="1:9">
+      <c r="I245" s="7">
+        <f t="shared" si="3"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>266</v>
       </c>
@@ -7820,9 +8553,12 @@
       <c r="H246" s="1">
         <v>42748</v>
       </c>
-      <c r="I246" s="1"/>
-    </row>
-    <row r="247" spans="1:9">
+      <c r="I246" s="7">
+        <f t="shared" si="3"/>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>267</v>
       </c>
@@ -7844,9 +8580,12 @@
       <c r="H247" s="1">
         <v>44179</v>
       </c>
-      <c r="I247" s="1"/>
-    </row>
-    <row r="248" spans="1:9">
+      <c r="I247" s="7">
+        <f t="shared" si="3"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>268</v>
       </c>
@@ -7868,9 +8607,12 @@
       <c r="H248" s="1">
         <v>44115</v>
       </c>
-      <c r="I248" s="1"/>
-    </row>
-    <row r="249" spans="1:9">
+      <c r="I248" s="7">
+        <f t="shared" si="3"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>269</v>
       </c>
@@ -7892,9 +8634,12 @@
       <c r="H249" s="1">
         <v>44365</v>
       </c>
-      <c r="I249" s="1"/>
-    </row>
-    <row r="250" spans="1:9">
+      <c r="I249" s="7">
+        <f t="shared" si="3"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>270</v>
       </c>
@@ -7916,9 +8661,12 @@
       <c r="H250" s="1">
         <v>43916</v>
       </c>
-      <c r="I250" s="1"/>
-    </row>
-    <row r="251" spans="1:9">
+      <c r="I250" s="7">
+        <f t="shared" si="3"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>271</v>
       </c>
@@ -7940,9 +8688,12 @@
       <c r="H251" s="1">
         <v>44542</v>
       </c>
-      <c r="I251" s="1"/>
-    </row>
-    <row r="252" spans="1:9">
+      <c r="I251" s="7">
+        <f t="shared" si="3"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>272</v>
       </c>
@@ -7964,9 +8715,12 @@
       <c r="H252" s="1">
         <v>44726</v>
       </c>
-      <c r="I252" s="1"/>
-    </row>
-    <row r="253" spans="1:9">
+      <c r="I252" s="7">
+        <f t="shared" si="3"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>273</v>
       </c>
@@ -7988,9 +8742,12 @@
       <c r="H253" s="1">
         <v>42620</v>
       </c>
-      <c r="I253" s="1"/>
-    </row>
-    <row r="254" spans="1:9">
+      <c r="I253" s="7">
+        <f t="shared" si="3"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>274</v>
       </c>
@@ -8012,9 +8769,12 @@
       <c r="H254" s="1">
         <v>44650</v>
       </c>
-      <c r="I254" s="1"/>
-    </row>
-    <row r="255" spans="1:9">
+      <c r="I254" s="7">
+        <f t="shared" si="3"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>275</v>
       </c>
@@ -8036,9 +8796,12 @@
       <c r="H255" s="1">
         <v>43857</v>
       </c>
-      <c r="I255" s="1"/>
-    </row>
-    <row r="256" spans="1:9">
+      <c r="I255" s="7">
+        <f t="shared" si="3"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>276</v>
       </c>
@@ -8060,9 +8823,12 @@
       <c r="H256" s="1">
         <v>43473</v>
       </c>
-      <c r="I256" s="1"/>
-    </row>
-    <row r="257" spans="1:9">
+      <c r="I256" s="7">
+        <f t="shared" si="3"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>277</v>
       </c>
@@ -8084,9 +8850,12 @@
       <c r="H257" s="1">
         <v>44904</v>
       </c>
-      <c r="I257" s="1"/>
-    </row>
-    <row r="258" spans="1:9">
+      <c r="I257" s="7">
+        <f t="shared" si="3"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>278</v>
       </c>
@@ -8108,9 +8877,12 @@
       <c r="H258" s="1">
         <v>44352</v>
       </c>
-      <c r="I258" s="1"/>
-    </row>
-    <row r="259" spans="1:9">
+      <c r="I258" s="7">
+        <f t="shared" si="3"/>
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>279</v>
       </c>
@@ -8132,9 +8904,12 @@
       <c r="H259" s="1">
         <v>44683</v>
       </c>
-      <c r="I259" s="1"/>
-    </row>
-    <row r="260" spans="1:9">
+      <c r="I259" s="7">
+        <f t="shared" si="3"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>280</v>
       </c>
@@ -8156,9 +8931,12 @@
       <c r="H260" s="1">
         <v>45066</v>
       </c>
-      <c r="I260" s="1"/>
-    </row>
-    <row r="261" spans="1:9">
+      <c r="I260" s="7">
+        <f t="shared" ref="I260:I323" si="4">YEAR(D260)</f>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>281</v>
       </c>
@@ -8180,9 +8958,12 @@
       <c r="H261" s="1">
         <v>43952</v>
       </c>
-      <c r="I261" s="1"/>
-    </row>
-    <row r="262" spans="1:9">
+      <c r="I261" s="7">
+        <f t="shared" si="4"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>282</v>
       </c>
@@ -8204,9 +8985,12 @@
       <c r="H262" s="1">
         <v>44489</v>
       </c>
-      <c r="I262" s="1"/>
-    </row>
-    <row r="263" spans="1:9">
+      <c r="I262" s="7">
+        <f t="shared" si="4"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>283</v>
       </c>
@@ -8228,9 +9012,12 @@
       <c r="H263" s="1">
         <v>43986</v>
       </c>
-      <c r="I263" s="1"/>
-    </row>
-    <row r="264" spans="1:9">
+      <c r="I263" s="7">
+        <f t="shared" si="4"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>284</v>
       </c>
@@ -8252,9 +9039,12 @@
       <c r="H264" s="1">
         <v>44478</v>
       </c>
-      <c r="I264" s="1"/>
-    </row>
-    <row r="265" spans="1:9">
+      <c r="I264" s="7">
+        <f t="shared" si="4"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>285</v>
       </c>
@@ -8276,9 +9066,12 @@
       <c r="H265" s="1">
         <v>44252</v>
       </c>
-      <c r="I265" s="1"/>
-    </row>
-    <row r="266" spans="1:9">
+      <c r="I265" s="7">
+        <f t="shared" si="4"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>286</v>
       </c>
@@ -8300,9 +9093,12 @@
       <c r="H266" s="1">
         <v>44607</v>
       </c>
-      <c r="I266" s="1"/>
-    </row>
-    <row r="267" spans="1:9">
+      <c r="I266" s="7">
+        <f t="shared" si="4"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>287</v>
       </c>
@@ -8324,9 +9120,12 @@
       <c r="H267" s="1">
         <v>44362</v>
       </c>
-      <c r="I267" s="1"/>
-    </row>
-    <row r="268" spans="1:9">
+      <c r="I267" s="7">
+        <f t="shared" si="4"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>288</v>
       </c>
@@ -8348,9 +9147,12 @@
       <c r="H268" s="1">
         <v>43301</v>
       </c>
-      <c r="I268" s="1"/>
-    </row>
-    <row r="269" spans="1:9">
+      <c r="I268" s="7">
+        <f t="shared" si="4"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>289</v>
       </c>
@@ -8372,9 +9174,12 @@
       <c r="H269" s="1">
         <v>44060</v>
       </c>
-      <c r="I269" s="1"/>
-    </row>
-    <row r="270" spans="1:9">
+      <c r="I269" s="7">
+        <f t="shared" si="4"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>290</v>
       </c>
@@ -8396,9 +9201,12 @@
       <c r="H270" s="1">
         <v>45134</v>
       </c>
-      <c r="I270" s="1"/>
-    </row>
-    <row r="271" spans="1:9">
+      <c r="I270" s="7">
+        <f t="shared" si="4"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>291</v>
       </c>
@@ -8420,9 +9228,12 @@
       <c r="H271" s="1">
         <v>44925</v>
       </c>
-      <c r="I271" s="1"/>
-    </row>
-    <row r="272" spans="1:9">
+      <c r="I271" s="7">
+        <f t="shared" si="4"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>292</v>
       </c>
@@ -8444,9 +9255,12 @@
       <c r="H272" s="1">
         <v>43351</v>
       </c>
-      <c r="I272" s="1"/>
-    </row>
-    <row r="273" spans="1:9">
+      <c r="I272" s="7">
+        <f t="shared" si="4"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>293</v>
       </c>
@@ -8468,9 +9282,12 @@
       <c r="H273" s="1">
         <v>44582</v>
       </c>
-      <c r="I273" s="1"/>
-    </row>
-    <row r="274" spans="1:9">
+      <c r="I273" s="7">
+        <f t="shared" si="4"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>294</v>
       </c>
@@ -8492,9 +9309,12 @@
       <c r="H274" s="1">
         <v>43140</v>
       </c>
-      <c r="I274" s="1"/>
-    </row>
-    <row r="275" spans="1:9">
+      <c r="I274" s="7">
+        <f t="shared" si="4"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>295</v>
       </c>
@@ -8516,9 +9336,12 @@
       <c r="H275" s="1">
         <v>44759</v>
       </c>
-      <c r="I275" s="1"/>
-    </row>
-    <row r="276" spans="1:9">
+      <c r="I275" s="7">
+        <f t="shared" si="4"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>296</v>
       </c>
@@ -8540,9 +9363,12 @@
       <c r="H276" s="1">
         <v>42146</v>
       </c>
-      <c r="I276" s="1"/>
-    </row>
-    <row r="277" spans="1:9">
+      <c r="I276" s="7">
+        <f t="shared" si="4"/>
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>297</v>
       </c>
@@ -8564,9 +9390,12 @@
       <c r="H277" s="1">
         <v>44347</v>
       </c>
-      <c r="I277" s="1"/>
-    </row>
-    <row r="278" spans="1:9">
+      <c r="I277" s="7">
+        <f t="shared" si="4"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>298</v>
       </c>
@@ -8588,9 +9417,12 @@
       <c r="H278" s="1">
         <v>44230</v>
       </c>
-      <c r="I278" s="1"/>
-    </row>
-    <row r="279" spans="1:9">
+      <c r="I278" s="7">
+        <f t="shared" si="4"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>299</v>
       </c>
@@ -8612,9 +9444,12 @@
       <c r="H279" s="1">
         <v>44697</v>
       </c>
-      <c r="I279" s="1"/>
-    </row>
-    <row r="280" spans="1:9">
+      <c r="I279" s="7">
+        <f t="shared" si="4"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>300</v>
       </c>
@@ -8636,9 +9471,12 @@
       <c r="H280" s="1">
         <v>44215</v>
       </c>
-      <c r="I280" s="1"/>
-    </row>
-    <row r="281" spans="1:9">
+      <c r="I280" s="7">
+        <f t="shared" si="4"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>301</v>
       </c>
@@ -8660,9 +9498,12 @@
       <c r="H281" s="1">
         <v>45087</v>
       </c>
-      <c r="I281" s="1"/>
-    </row>
-    <row r="282" spans="1:9">
+      <c r="I281" s="7">
+        <f t="shared" si="4"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>302</v>
       </c>
@@ -8684,9 +9525,12 @@
       <c r="H282" s="1">
         <v>44963</v>
       </c>
-      <c r="I282" s="1"/>
-    </row>
-    <row r="283" spans="1:9">
+      <c r="I282" s="7">
+        <f t="shared" si="4"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>303</v>
       </c>
@@ -8708,9 +9552,12 @@
       <c r="H283" s="1">
         <v>44761</v>
       </c>
-      <c r="I283" s="1"/>
-    </row>
-    <row r="284" spans="1:9">
+      <c r="I283" s="7">
+        <f t="shared" si="4"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>304</v>
       </c>
@@ -8732,9 +9579,12 @@
       <c r="H284" s="1">
         <v>44786</v>
       </c>
-      <c r="I284" s="1"/>
-    </row>
-    <row r="285" spans="1:9">
+      <c r="I284" s="7">
+        <f t="shared" si="4"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>305</v>
       </c>
@@ -8756,9 +9606,12 @@
       <c r="H285" s="1">
         <v>44421</v>
       </c>
-      <c r="I285" s="1"/>
-    </row>
-    <row r="286" spans="1:9">
+      <c r="I285" s="7">
+        <f t="shared" si="4"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>306</v>
       </c>
@@ -8780,9 +9633,12 @@
       <c r="H286" s="1">
         <v>44695</v>
       </c>
-      <c r="I286" s="1"/>
-    </row>
-    <row r="287" spans="1:9">
+      <c r="I286" s="7">
+        <f t="shared" si="4"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>307</v>
       </c>
@@ -8804,9 +9660,12 @@
       <c r="H287" s="1">
         <v>44910</v>
       </c>
-      <c r="I287" s="1"/>
-    </row>
-    <row r="288" spans="1:9">
+      <c r="I287" s="7">
+        <f t="shared" si="4"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>308</v>
       </c>
@@ -8828,9 +9687,12 @@
       <c r="H288" s="1">
         <v>44818</v>
       </c>
-      <c r="I288" s="1"/>
-    </row>
-    <row r="289" spans="1:9">
+      <c r="I288" s="7">
+        <f t="shared" si="4"/>
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>309</v>
       </c>
@@ -8852,9 +9714,12 @@
       <c r="H289" s="1">
         <v>43209</v>
       </c>
-      <c r="I289" s="1"/>
-    </row>
-    <row r="290" spans="1:9">
+      <c r="I289" s="7">
+        <f t="shared" si="4"/>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>310</v>
       </c>
@@ -8876,9 +9741,12 @@
       <c r="H290" s="1">
         <v>44133</v>
       </c>
-      <c r="I290" s="1"/>
-    </row>
-    <row r="291" spans="1:9">
+      <c r="I290" s="7">
+        <f t="shared" si="4"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>311</v>
       </c>
@@ -8900,9 +9768,12 @@
       <c r="H291" s="1">
         <v>44833</v>
       </c>
-      <c r="I291" s="1"/>
-    </row>
-    <row r="292" spans="1:9">
+      <c r="I291" s="7">
+        <f t="shared" si="4"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>312</v>
       </c>
@@ -8924,9 +9795,12 @@
       <c r="H292" s="1">
         <v>42348</v>
       </c>
-      <c r="I292" s="1"/>
-    </row>
-    <row r="293" spans="1:9">
+      <c r="I292" s="7">
+        <f t="shared" si="4"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>313</v>
       </c>
@@ -8948,9 +9822,12 @@
       <c r="H293" s="1">
         <v>43919</v>
       </c>
-      <c r="I293" s="1"/>
-    </row>
-    <row r="294" spans="1:9">
+      <c r="I293" s="7">
+        <f t="shared" si="4"/>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>314</v>
       </c>
@@ -8972,9 +9849,12 @@
       <c r="H294" s="1">
         <v>44292</v>
       </c>
-      <c r="I294" s="1"/>
-    </row>
-    <row r="295" spans="1:9">
+      <c r="I294" s="7">
+        <f t="shared" si="4"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>315</v>
       </c>
@@ -8996,9 +9876,12 @@
       <c r="H295" s="1">
         <v>44348</v>
       </c>
-      <c r="I295" s="1"/>
-    </row>
-    <row r="296" spans="1:9">
+      <c r="I295" s="7">
+        <f t="shared" si="4"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>316</v>
       </c>
@@ -9020,9 +9903,12 @@
       <c r="H296" s="1">
         <v>43344</v>
       </c>
-      <c r="I296" s="1"/>
-    </row>
-    <row r="297" spans="1:9">
+      <c r="I296" s="7">
+        <f t="shared" si="4"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>317</v>
       </c>
@@ -9044,9 +9930,12 @@
       <c r="H297" s="1">
         <v>43353</v>
       </c>
-      <c r="I297" s="1"/>
-    </row>
-    <row r="298" spans="1:9">
+      <c r="I297" s="7">
+        <f t="shared" si="4"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>318</v>
       </c>
@@ -9068,9 +9957,12 @@
       <c r="H298" s="1">
         <v>43512</v>
       </c>
-      <c r="I298" s="1"/>
-    </row>
-    <row r="299" spans="1:9">
+      <c r="I298" s="7">
+        <f t="shared" si="4"/>
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>319</v>
       </c>
@@ -9092,9 +9984,12 @@
       <c r="H299" s="1">
         <v>42828</v>
       </c>
-      <c r="I299" s="1"/>
-    </row>
-    <row r="300" spans="1:9">
+      <c r="I299" s="7">
+        <f t="shared" si="4"/>
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>320</v>
       </c>
@@ -9116,9 +10011,12 @@
       <c r="H300" s="1">
         <v>43511</v>
       </c>
-      <c r="I300" s="1"/>
-    </row>
-    <row r="301" spans="1:9">
+      <c r="I300" s="7">
+        <f t="shared" si="4"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>321</v>
       </c>
@@ -9140,9 +10038,12 @@
       <c r="H301" s="1">
         <v>43719</v>
       </c>
-      <c r="I301" s="1"/>
-    </row>
-    <row r="302" spans="1:9">
+      <c r="I301" s="7">
+        <f t="shared" si="4"/>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>322</v>
       </c>
@@ -9164,9 +10065,12 @@
       <c r="H302" s="1">
         <v>44568</v>
       </c>
-      <c r="I302" s="1"/>
-    </row>
-    <row r="303" spans="1:9">
+      <c r="I302" s="7">
+        <f t="shared" si="4"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>323</v>
       </c>
@@ -9188,9 +10092,12 @@
       <c r="H303" s="1">
         <v>43818</v>
       </c>
-      <c r="I303" s="1"/>
-    </row>
-    <row r="304" spans="1:9">
+      <c r="I303" s="7">
+        <f t="shared" si="4"/>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>324</v>
       </c>
@@ -9212,9 +10119,12 @@
       <c r="H304" s="1">
         <v>44081</v>
       </c>
-      <c r="I304" s="1"/>
-    </row>
-    <row r="305" spans="1:9">
+      <c r="I304" s="7">
+        <f t="shared" si="4"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>325</v>
       </c>
@@ -9236,9 +10146,12 @@
       <c r="H305" s="1">
         <v>41375</v>
       </c>
-      <c r="I305" s="1"/>
-    </row>
-    <row r="306" spans="1:9">
+      <c r="I305" s="7">
+        <f t="shared" si="4"/>
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>326</v>
       </c>
@@ -9260,9 +10173,12 @@
       <c r="H306" s="1">
         <v>44566</v>
       </c>
-      <c r="I306" s="1"/>
-    </row>
-    <row r="307" spans="1:9">
+      <c r="I306" s="7">
+        <f t="shared" si="4"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>327</v>
       </c>
@@ -9284,9 +10200,12 @@
       <c r="H307" s="1">
         <v>44486</v>
       </c>
-      <c r="I307" s="1"/>
-    </row>
-    <row r="308" spans="1:9">
+      <c r="I307" s="7">
+        <f t="shared" si="4"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>328</v>
       </c>
@@ -9308,9 +10227,12 @@
       <c r="H308" s="1">
         <v>44500</v>
       </c>
-      <c r="I308" s="1"/>
-    </row>
-    <row r="309" spans="1:9">
+      <c r="I308" s="7">
+        <f t="shared" si="4"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>329</v>
       </c>
@@ -9332,9 +10254,12 @@
       <c r="H309" s="1">
         <v>44416</v>
       </c>
-      <c r="I309" s="1"/>
-    </row>
-    <row r="310" spans="1:9">
+      <c r="I309" s="7">
+        <f t="shared" si="4"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>330</v>
       </c>
@@ -9356,9 +10281,12 @@
       <c r="H310" s="1">
         <v>45001</v>
       </c>
-      <c r="I310" s="1"/>
-    </row>
-    <row r="311" spans="1:9">
+      <c r="I310" s="7">
+        <f t="shared" si="4"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>331</v>
       </c>
@@ -9380,9 +10308,12 @@
       <c r="H311" s="1">
         <v>44103</v>
       </c>
-      <c r="I311" s="1"/>
-    </row>
-    <row r="312" spans="1:9">
+      <c r="I311" s="7">
+        <f t="shared" si="4"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>332</v>
       </c>
@@ -9404,9 +10335,12 @@
       <c r="H312" s="1">
         <v>43893</v>
       </c>
-      <c r="I312" s="1"/>
-    </row>
-    <row r="313" spans="1:9">
+      <c r="I312" s="7">
+        <f t="shared" si="4"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>333</v>
       </c>
@@ -9428,9 +10362,12 @@
       <c r="H313" s="1">
         <v>44379</v>
       </c>
-      <c r="I313" s="1"/>
-    </row>
-    <row r="314" spans="1:9">
+      <c r="I313" s="7">
+        <f t="shared" si="4"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>334</v>
       </c>
@@ -9452,9 +10389,12 @@
       <c r="H314" s="1">
         <v>41175</v>
       </c>
-      <c r="I314" s="1"/>
-    </row>
-    <row r="315" spans="1:9">
+      <c r="I314" s="7">
+        <f t="shared" si="4"/>
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>335</v>
       </c>
@@ -9476,9 +10416,12 @@
       <c r="H315" s="1">
         <v>44869</v>
       </c>
-      <c r="I315" s="1"/>
-    </row>
-    <row r="316" spans="1:9">
+      <c r="I315" s="7">
+        <f t="shared" si="4"/>
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>336</v>
       </c>
@@ -9500,9 +10443,12 @@
       <c r="H316" s="1">
         <v>45071</v>
       </c>
-      <c r="I316" s="1"/>
-    </row>
-    <row r="317" spans="1:9">
+      <c r="I316" s="7">
+        <f t="shared" si="4"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>337</v>
       </c>
@@ -9524,9 +10470,12 @@
       <c r="H317" s="1">
         <v>44554</v>
       </c>
-      <c r="I317" s="1"/>
-    </row>
-    <row r="318" spans="1:9">
+      <c r="I317" s="7">
+        <f t="shared" si="4"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>338</v>
       </c>
@@ -9548,9 +10497,12 @@
       <c r="H318" s="1">
         <v>44722</v>
       </c>
-      <c r="I318" s="1"/>
-    </row>
-    <row r="319" spans="1:9">
+      <c r="I318" s="7">
+        <f t="shared" si="4"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>339</v>
       </c>
@@ -9572,9 +10524,12 @@
       <c r="H319" s="1">
         <v>45056</v>
       </c>
-      <c r="I319" s="1"/>
-    </row>
-    <row r="320" spans="1:9">
+      <c r="I319" s="7">
+        <f t="shared" si="4"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>340</v>
       </c>
@@ -9596,9 +10551,12 @@
       <c r="H320" s="1">
         <v>44733</v>
       </c>
-      <c r="I320" s="1"/>
-    </row>
-    <row r="321" spans="1:9">
+      <c r="I320" s="7">
+        <f t="shared" si="4"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>341</v>
       </c>
@@ -9620,9 +10578,12 @@
       <c r="H321" s="1">
         <v>44657</v>
       </c>
-      <c r="I321" s="1"/>
-    </row>
-    <row r="322" spans="1:9">
+      <c r="I321" s="7">
+        <f t="shared" si="4"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>342</v>
       </c>
@@ -9644,9 +10605,12 @@
       <c r="H322" s="1">
         <v>43634</v>
       </c>
-      <c r="I322" s="1"/>
-    </row>
-    <row r="323" spans="1:9">
+      <c r="I322" s="7">
+        <f t="shared" si="4"/>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>343</v>
       </c>
@@ -9668,9 +10632,12 @@
       <c r="H323" s="1">
         <v>43588</v>
       </c>
-      <c r="I323" s="1"/>
-    </row>
-    <row r="324" spans="1:9">
+      <c r="I323" s="7">
+        <f t="shared" si="4"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>344</v>
       </c>
@@ -9692,9 +10659,12 @@
       <c r="H324" s="1">
         <v>43455</v>
       </c>
-      <c r="I324" s="1"/>
-    </row>
-    <row r="325" spans="1:9">
+      <c r="I324" s="7">
+        <f t="shared" ref="I324:I366" si="5">YEAR(D324)</f>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>345</v>
       </c>
@@ -9716,9 +10686,12 @@
       <c r="H325" s="1">
         <v>44966</v>
       </c>
-      <c r="I325" s="1"/>
-    </row>
-    <row r="326" spans="1:9">
+      <c r="I325" s="7">
+        <f t="shared" si="5"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>346</v>
       </c>
@@ -9740,9 +10713,12 @@
       <c r="H326" s="1">
         <v>42421</v>
       </c>
-      <c r="I326" s="1"/>
-    </row>
-    <row r="327" spans="1:9">
+      <c r="I326" s="7">
+        <f t="shared" si="5"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>347</v>
       </c>
@@ -9764,9 +10740,12 @@
       <c r="H327" s="1">
         <v>43875</v>
       </c>
-      <c r="I327" s="1"/>
-    </row>
-    <row r="328" spans="1:9">
+      <c r="I327" s="7">
+        <f t="shared" si="5"/>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>348</v>
       </c>
@@ -9788,9 +10767,12 @@
       <c r="H328" s="1">
         <v>44766</v>
       </c>
-      <c r="I328" s="1"/>
-    </row>
-    <row r="329" spans="1:9">
+      <c r="I328" s="7">
+        <f t="shared" si="5"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>349</v>
       </c>
@@ -9812,9 +10794,12 @@
       <c r="H329" s="1">
         <v>43457</v>
       </c>
-      <c r="I329" s="1"/>
-    </row>
-    <row r="330" spans="1:9">
+      <c r="I329" s="7">
+        <f t="shared" si="5"/>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>350</v>
       </c>
@@ -9836,9 +10821,12 @@
       <c r="H330" s="1">
         <v>43658</v>
       </c>
-      <c r="I330" s="1"/>
-    </row>
-    <row r="331" spans="1:9">
+      <c r="I330" s="7">
+        <f t="shared" si="5"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>351</v>
       </c>
@@ -9860,9 +10848,12 @@
       <c r="H331" s="1">
         <v>44472</v>
       </c>
-      <c r="I331" s="1"/>
-    </row>
-    <row r="332" spans="1:9">
+      <c r="I331" s="7">
+        <f t="shared" si="5"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>352</v>
       </c>
@@ -9884,9 +10875,12 @@
       <c r="H332" s="1">
         <v>45145</v>
       </c>
-      <c r="I332" s="1"/>
-    </row>
-    <row r="333" spans="1:9">
+      <c r="I332" s="7">
+        <f t="shared" si="5"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>353</v>
       </c>
@@ -9908,9 +10902,12 @@
       <c r="H333" s="1">
         <v>43974</v>
       </c>
-      <c r="I333" s="1"/>
-    </row>
-    <row r="334" spans="1:9">
+      <c r="I333" s="7">
+        <f t="shared" si="5"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>354</v>
       </c>
@@ -9932,9 +10929,12 @@
       <c r="H334" s="1">
         <v>44765</v>
       </c>
-      <c r="I334" s="1"/>
-    </row>
-    <row r="335" spans="1:9">
+      <c r="I334" s="7">
+        <f t="shared" si="5"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>355</v>
       </c>
@@ -9956,9 +10956,12 @@
       <c r="H335" s="1">
         <v>45066</v>
       </c>
-      <c r="I335" s="1"/>
-    </row>
-    <row r="336" spans="1:9">
+      <c r="I335" s="7">
+        <f t="shared" si="5"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>356</v>
       </c>
@@ -9980,9 +10983,12 @@
       <c r="H336" s="1">
         <v>44339</v>
       </c>
-      <c r="I336" s="1"/>
-    </row>
-    <row r="337" spans="1:9">
+      <c r="I336" s="7">
+        <f t="shared" si="5"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>357</v>
       </c>
@@ -10004,9 +11010,12 @@
       <c r="H337" s="1">
         <v>41823</v>
       </c>
-      <c r="I337" s="1"/>
-    </row>
-    <row r="338" spans="1:9">
+      <c r="I337" s="7">
+        <f t="shared" si="5"/>
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>358</v>
       </c>
@@ -10028,9 +11037,12 @@
       <c r="H338" s="1">
         <v>44702</v>
       </c>
-      <c r="I338" s="1"/>
-    </row>
-    <row r="339" spans="1:9">
+      <c r="I338" s="7">
+        <f t="shared" si="5"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>359</v>
       </c>
@@ -10052,9 +11064,12 @@
       <c r="H339" s="1">
         <v>44365</v>
       </c>
-      <c r="I339" s="1"/>
-    </row>
-    <row r="340" spans="1:9">
+      <c r="I339" s="7">
+        <f t="shared" si="5"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>360</v>
       </c>
@@ -10076,9 +11091,12 @@
       <c r="H340" s="1">
         <v>44412</v>
       </c>
-      <c r="I340" s="1"/>
-    </row>
-    <row r="341" spans="1:9">
+      <c r="I340" s="7">
+        <f t="shared" si="5"/>
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>361</v>
       </c>
@@ -10100,9 +11118,12 @@
       <c r="H341" s="1">
         <v>43019</v>
       </c>
-      <c r="I341" s="1"/>
-    </row>
-    <row r="342" spans="1:9">
+      <c r="I341" s="7">
+        <f t="shared" si="5"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>362</v>
       </c>
@@ -10124,9 +11145,12 @@
       <c r="H342" s="1">
         <v>44727</v>
       </c>
-      <c r="I342" s="1"/>
-    </row>
-    <row r="343" spans="1:9">
+      <c r="I342" s="7">
+        <f t="shared" si="5"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>363</v>
       </c>
@@ -10148,9 +11172,12 @@
       <c r="H343" s="1">
         <v>44343</v>
       </c>
-      <c r="I343" s="1"/>
-    </row>
-    <row r="344" spans="1:9">
+      <c r="I343" s="7">
+        <f t="shared" si="5"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>364</v>
       </c>
@@ -10172,9 +11199,12 @@
       <c r="H344" s="1">
         <v>42592</v>
       </c>
-      <c r="I344" s="1"/>
-    </row>
-    <row r="345" spans="1:9">
+      <c r="I344" s="7">
+        <f t="shared" si="5"/>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>365</v>
       </c>
@@ -10196,9 +11226,12 @@
       <c r="H345" s="1">
         <v>43736</v>
       </c>
-      <c r="I345" s="1"/>
-    </row>
-    <row r="346" spans="1:9">
+      <c r="I345" s="7">
+        <f t="shared" si="5"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>366</v>
       </c>
@@ -10220,9 +11253,12 @@
       <c r="H346" s="1">
         <v>43720</v>
       </c>
-      <c r="I346" s="1"/>
-    </row>
-    <row r="347" spans="1:9">
+      <c r="I346" s="7">
+        <f t="shared" si="5"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>367</v>
       </c>
@@ -10244,9 +11280,12 @@
       <c r="H347" s="1">
         <v>43755</v>
       </c>
-      <c r="I347" s="1"/>
-    </row>
-    <row r="348" spans="1:9">
+      <c r="I347" s="7">
+        <f t="shared" si="5"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>368</v>
       </c>
@@ -10268,9 +11307,12 @@
       <c r="H348" s="1">
         <v>43941</v>
       </c>
-      <c r="I348" s="1"/>
-    </row>
-    <row r="349" spans="1:9">
+      <c r="I348" s="7">
+        <f t="shared" si="5"/>
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>369</v>
       </c>
@@ -10292,9 +11334,12 @@
       <c r="H349" s="1">
         <v>43593</v>
       </c>
-      <c r="I349" s="1"/>
-    </row>
-    <row r="350" spans="1:9">
+      <c r="I349" s="7">
+        <f t="shared" si="5"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>370</v>
       </c>
@@ -10316,9 +11361,12 @@
       <c r="H350" s="1">
         <v>44018</v>
       </c>
-      <c r="I350" s="1"/>
-    </row>
-    <row r="351" spans="1:9">
+      <c r="I350" s="7">
+        <f t="shared" si="5"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>371</v>
       </c>
@@ -10340,9 +11388,12 @@
       <c r="H351" s="1">
         <v>45006</v>
       </c>
-      <c r="I351" s="1"/>
-    </row>
-    <row r="352" spans="1:9">
+      <c r="I351" s="7">
+        <f t="shared" si="5"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>372</v>
       </c>
@@ -10364,9 +11415,12 @@
       <c r="H352" s="1">
         <v>41570</v>
       </c>
-      <c r="I352" s="1"/>
-    </row>
-    <row r="353" spans="1:9">
+      <c r="I352" s="7">
+        <f t="shared" si="5"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>373</v>
       </c>
@@ -10388,9 +11442,12 @@
       <c r="H353" s="1">
         <v>41747</v>
       </c>
-      <c r="I353" s="1"/>
-    </row>
-    <row r="354" spans="1:9">
+      <c r="I353" s="7">
+        <f t="shared" si="5"/>
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>374</v>
       </c>
@@ -10412,9 +11469,12 @@
       <c r="H354" s="1">
         <v>45027</v>
       </c>
-      <c r="I354" s="1"/>
-    </row>
-    <row r="355" spans="1:9">
+      <c r="I354" s="7">
+        <f t="shared" si="5"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>375</v>
       </c>
@@ -10436,9 +11496,12 @@
       <c r="H355" s="1">
         <v>42797</v>
       </c>
-      <c r="I355" s="1"/>
-    </row>
-    <row r="356" spans="1:9">
+      <c r="I355" s="7">
+        <f t="shared" si="5"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>376</v>
       </c>
@@ -10460,9 +11523,12 @@
       <c r="H356" s="1">
         <v>44884</v>
       </c>
-      <c r="I356" s="1"/>
-    </row>
-    <row r="357" spans="1:9">
+      <c r="I356" s="7">
+        <f t="shared" si="5"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>377</v>
       </c>
@@ -10484,9 +11550,12 @@
       <c r="H357" s="1">
         <v>44401</v>
       </c>
-      <c r="I357" s="1"/>
-    </row>
-    <row r="358" spans="1:9">
+      <c r="I357" s="7">
+        <f t="shared" si="5"/>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>378</v>
       </c>
@@ -10508,9 +11577,12 @@
       <c r="H358" s="1">
         <v>44803</v>
       </c>
-      <c r="I358" s="1"/>
-    </row>
-    <row r="359" spans="1:9">
+      <c r="I358" s="7">
+        <f t="shared" si="5"/>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>379</v>
       </c>
@@ -10532,9 +11604,12 @@
       <c r="H359" s="1">
         <v>44668</v>
       </c>
-      <c r="I359" s="1"/>
-    </row>
-    <row r="360" spans="1:9">
+      <c r="I359" s="7">
+        <f t="shared" si="5"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>380</v>
       </c>
@@ -10556,9 +11631,12 @@
       <c r="H360" s="1">
         <v>41876</v>
       </c>
-      <c r="I360" s="1"/>
-    </row>
-    <row r="361" spans="1:9">
+      <c r="I360" s="7">
+        <f t="shared" si="5"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>381</v>
       </c>
@@ -10580,9 +11658,12 @@
       <c r="H361" s="1">
         <v>42601</v>
       </c>
-      <c r="I361" s="1"/>
-    </row>
-    <row r="362" spans="1:9">
+      <c r="I361" s="7">
+        <f t="shared" si="5"/>
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>382</v>
       </c>
@@ -10604,9 +11685,12 @@
       <c r="H362" s="1">
         <v>44588</v>
       </c>
-      <c r="I362" s="1"/>
-    </row>
-    <row r="363" spans="1:9">
+      <c r="I362" s="7">
+        <f t="shared" si="5"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -10628,9 +11712,12 @@
       <c r="H363" s="1">
         <v>45118</v>
       </c>
-      <c r="I363" s="1"/>
-    </row>
-    <row r="364" spans="1:9">
+      <c r="I363" s="7">
+        <f t="shared" si="5"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -10652,9 +11739,12 @@
       <c r="H364" s="1">
         <v>44757</v>
       </c>
-      <c r="I364" s="1"/>
-    </row>
-    <row r="365" spans="1:9">
+      <c r="I364" s="7">
+        <f t="shared" si="5"/>
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -10676,9 +11766,12 @@
       <c r="H365" s="1">
         <v>43962</v>
       </c>
-      <c r="I365" s="1"/>
-    </row>
-    <row r="366" spans="1:9">
+      <c r="I365" s="7">
+        <f t="shared" si="5"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -10700,7 +11793,10 @@
       <c r="H366" s="1">
         <v>44356</v>
       </c>
-      <c r="I366" s="1"/>
+      <c r="I366" s="7">
+        <f t="shared" si="5"/>
+        <v>1957</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
